--- a/positions.xlsx
+++ b/positions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>wild-usdt</t>
   </si>
 </sst>
 </file>
@@ -357,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -397,6 +403,21 @@
       </c>
       <c r="E2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>wild-usdt</t>
+  </si>
+  <si>
+    <t>azer-usdt</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
